--- a/Registros/14-10-2025.xlsx
+++ b/Registros/14-10-2025.xlsx
@@ -52,7 +52,7 @@
     <t>BERAUN YMBERTIS JO ANN</t>
   </si>
   <si>
-    <t>19:53</t>
+    <t>08:20P.M.</t>
   </si>
   <si>
     <t>REGISTRO DE ASISTENCIA - SEMESTRAL - TARDE</t>
